--- a/測定部デジタル部テスト20141111.xlsx
+++ b/測定部デジタル部テスト20141111.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -198,16 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ICなし、電源接続</t>
-    <rPh sb="5" eb="7">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IC1-7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,6 +287,231 @@
   </si>
   <si>
     <t>2014.11.11 #2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※9V×2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※単3×7×2</t>
+    <rPh sb="1" eb="2">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未測定</t>
+    <rPh sb="0" eb="3">
+      <t>ミソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+15V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-15V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.07V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-9.66V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.09V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.09V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.29V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.49V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.07V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-14.20V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.70V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.11.13 #1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.11.13 #2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※単3×10×2</t>
+    <rPh sb="1" eb="2">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICあり、LCD接続（BLなし）、電源接続</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.91V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-9.44V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.46V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.28V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.70V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-14.11V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.67V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.28V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.09V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.11.13 #1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.11.13 #2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICあり、LCD接続（BLあり）、電源接続</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.37V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-9.78V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.48V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.05V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-13.39V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.64V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICなし、LCDなし、電源接続</t>
+    <rPh sb="11" eb="13">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,14 +588,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -388,6 +600,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,12 +925,12 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
@@ -715,457 +939,846 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
+      <c r="C43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="E50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="C51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E32" s="2"/>
+      <c r="C52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
